--- a/Projeto 1/Projeto 1.xlsx
+++ b/Projeto 1/Projeto 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\Excel\Nelio Alves udemy\Mini Projetos\Projeto 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\Projetos\Excel Nelio Alves\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A7A168-7DDF-45B6-AF16-FA9F7299CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6719BABB-B1E0-438A-AE6F-BBB3ECCA06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -3132,6 +3132,9 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="6" fontId="34" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3162,9 +3165,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="34" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{84B00471-F204-45A0-B6D9-8AA6B2DF694E}"/>
@@ -3172,6 +3172,9 @@
     <cellStyle name="Vírgula 2" xfId="1" xr:uid="{E3C324DA-9111-4F34-B9B4-1F695A9205F4}"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3281,9 +3284,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -22177,7 +22177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5504FCF0-AF74-4834-8748-5A7929FE8013}" name="TdDetalheReceita" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5504FCF0-AF74-4834-8748-5A7929FE8013}" name="TdDetalheReceita" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B6:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -22311,6 +22311,9 @@
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="166"/>
   </dataFields>
   <formats count="4">
+    <format dxfId="6">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
     <format dxfId="5">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
@@ -22318,9 +22321,6 @@
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="3">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -23221,13 +23221,13 @@
     <tableColumn id="14" xr3:uid="{4AC03C1C-8C17-408D-991F-8DFDA551EE2E}" name="Ano Previsto" dataDxfId="23">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{66D03C97-8D67-4EAE-86BD-2E2C5C71B03F}" name="Conta Vencida" dataDxfId="22">
-      <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O2),"Vencida","Não Vencida")</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{66D03C97-8D67-4EAE-86BD-2E2C5C71B03F}" name="Conta Vencida" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E4FAF820-CC28-488A-AF9F-B157478BFC1E}" name="Venda à Vista" dataDxfId="21">
+    <tableColumn id="12" xr3:uid="{E4FAF820-CC28-488A-AF9F-B157478BFC1E}" name="Venda à Vista" dataDxfId="22">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B64FAAA6-B68D-4E69-96BD-36ED63F29B70}" name="Dias de atraso" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{B64FAAA6-B68D-4E69-96BD-36ED63F29B70}" name="Dias de atraso" dataDxfId="21">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23236,35 +23236,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B3:O232" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6B38345C-B48C-426E-815A-2D388B11333F}" name="Data do Caixa Registrado" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{F1298A2D-F22F-4DAF-BFD8-E0706B1A4D02}" name="Data da Competência" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{35463D53-DA82-4FD9-81AA-A33453FF2713}" name="Data do Caixa Previsto" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6B38345C-B48C-426E-815A-2D388B11333F}" name="Data do Caixa Registrado" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F1298A2D-F22F-4DAF-BFD8-E0706B1A4D02}" name="Data da Competência" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{35463D53-DA82-4FD9-81AA-A33453FF2713}" name="Data do Caixa Previsto" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{A7C3FA66-3563-4A96-A48E-40DC72D43268}" name="Conta Nível 1"/>
     <tableColumn id="5" xr3:uid="{5BA048EC-D4E8-44AA-A13B-E60188DD6092}" name="Conta Nível 2"/>
     <tableColumn id="6" xr3:uid="{C3C1BF2D-BAA7-4D27-83AF-489B5141E248}" name="Histórico"/>
-    <tableColumn id="7" xr3:uid="{2C379022-6872-4584-B424-9A8294FD5E62}" name="Valor" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{B4A752E9-34D6-4A8D-A959-6507FB74B635}" name="Mês Caixa" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{2C379022-6872-4584-B424-9A8294FD5E62}" name="Valor" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{B4A752E9-34D6-4A8D-A959-6507FB74B635}" name="Mês Caixa" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3CC9CEA-B096-42F4-9D10-A856D7E85CCF}" name="Ano Caixa" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{B3CC9CEA-B096-42F4-9D10-A856D7E85CCF}" name="Ano Caixa" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{863A6106-1E25-46D2-843E-A886081F6326}" name="Mês Competência" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{863A6106-1E25-46D2-843E-A886081F6326}" name="Mês Competência" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{85D2B605-0281-4F89-804F-59BD56C748BD}" name="Ano Competência" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{85D2B605-0281-4F89-804F-59BD56C748BD}" name="Ano Competência" dataDxfId="10">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BC05A0D6-7626-48C3-B39F-88851272DE2C}" name="Mês Previsto" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{BC05A0D6-7626-48C3-B39F-88851272DE2C}" name="Mês Previsto" dataDxfId="9">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0221AB18-6B68-4980-B04E-F4CFB740E74D}" name="Ano Previsto" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{0221AB18-6B68-4980-B04E-F4CFB740E74D}" name="Ano Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C2628CB3-B617-4775-BDB6-A5F3D25F790E}" name="Dias de Atraso" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{C2628CB3-B617-4775-BDB6-A5F3D25F790E}" name="Dias de Atraso" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23626,8 +23626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EB0BD-1B27-444C-82E4-298693A72950}">
   <dimension ref="B1:XFC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25271,7 +25271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E64F0F-41DD-48B6-856E-8702065404C5}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -25376,7 +25376,7 @@
       <c r="B7" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="F7" s="57"/>
       <c r="K7" s="60" t="s">
         <v>555</v>
@@ -25387,9 +25387,9 @@
         <f>DashBoardAtualID!B13</f>
         <v>27321</v>
       </c>
-      <c r="D8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="F8" s="57"/>
-      <c r="K8" s="152">
+      <c r="K8" s="142">
         <f>SUM(DashBoardAtualID!I5:I16)</f>
         <v>20663</v>
       </c>
@@ -25405,7 +25405,7 @@
       <c r="B10" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="F10" s="57" t="s">
         <v>604</v>
       </c>
@@ -25416,7 +25416,7 @@
         <f>DashBoardAtualID!B14</f>
         <v>20687</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="F11" s="63"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
@@ -25426,15 +25426,15 @@
     </row>
     <row r="12" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="150" t="s">
         <v>557</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="F13" s="149" t="s">
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="F13" s="150" t="s">
         <v>558</v>
       </c>
-      <c r="G13" s="151"/>
+      <c r="G13" s="152"/>
       <c r="I13" s="67" t="s">
         <v>559</v>
       </c>
@@ -25479,11 +25479,11 @@
       <c r="D16" s="71"/>
       <c r="F16" s="94">
         <f ca="1">DashBoardAtualID!D26</f>
-        <v>884.76470588235293</v>
+        <v>895.88235294117646</v>
       </c>
       <c r="G16" s="95">
         <f ca="1">DashBoardAtualID!I26</f>
-        <v>1409.9166666666667</v>
+        <v>1427.9166666666667</v>
       </c>
       <c r="I16" s="75"/>
       <c r="K16" s="77"/>
@@ -25538,6 +25538,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="group" xr2:uid="{BF4BA6F3-3457-46B8-8BB5-7135167CC3F1}">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardAtualID!G5:G16</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{0CED3C68-DE60-4932-BF3C-8BBB4F7CC813}">
           <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -25551,22 +25567,6 @@
             <x14:sparkline>
               <xm:f>DashBoardAtualID!F5:F16</xm:f>
               <xm:sqref>D7</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="group" xr2:uid="{BF4BA6F3-3457-46B8-8BB5-7135167CC3F1}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>DashBoardAtualID!G5:G16</xm:f>
-              <xm:sqref>D10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -25685,7 +25685,7 @@
       <c r="B7" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="F7" s="57"/>
       <c r="K7" s="60" t="s">
         <v>555</v>
@@ -25696,7 +25696,7 @@
         <f>DashBoardFinanceiroIAnualD!B13</f>
         <v>27321</v>
       </c>
-      <c r="D8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="F8" s="57"/>
       <c r="K8" s="61">
         <f>SUM(DashBoardFinanceiroIAnualD!I5:I16)</f>
@@ -25714,7 +25714,7 @@
       <c r="B10" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="147"/>
+      <c r="D10" s="148"/>
       <c r="F10" s="57" t="s">
         <v>604</v>
       </c>
@@ -25725,7 +25725,7 @@
         <f>DashBoardFinanceiroIAnualD!B14</f>
         <v>20687</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="F11" s="63"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
@@ -25735,15 +25735,15 @@
     </row>
     <row r="12" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="150" t="s">
         <v>557</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="F13" s="149" t="s">
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="F13" s="150" t="s">
         <v>558</v>
       </c>
-      <c r="G13" s="151"/>
+      <c r="G13" s="152"/>
       <c r="I13" s="67" t="s">
         <v>559</v>
       </c>
@@ -25788,11 +25788,11 @@
       <c r="D16" s="71"/>
       <c r="F16" s="94">
         <f ca="1">DashBoardFinanceiroIAnualD!D26</f>
-        <v>884.76470588235293</v>
+        <v>895.88235294117646</v>
       </c>
       <c r="G16" s="95">
         <f ca="1">DashBoardFinanceiroIAnualD!I26</f>
-        <v>1409.9166666666667</v>
+        <v>1427.9166666666667</v>
       </c>
       <c r="I16" s="75"/>
       <c r="K16" s="77"/>
@@ -25847,6 +25847,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" minAxisType="group" maxAxisType="group" xr2:uid="{917BE4B4-5CF1-47D5-8C6C-3BF2D95A8D47}">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>DashBoardFinanceiroIAnualD!F5:F16</xm:f>
+              <xm:sqref>D7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="group" xr2:uid="{2813A950-58C3-4B48-81DF-39C70EB7E570}">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -25860,22 +25876,6 @@
             <x14:sparkline>
               <xm:f>DashBoardFinanceiroIAnualD!G5:G16</xm:f>
               <xm:sqref>D10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" minAxisType="group" maxAxisType="group" xr2:uid="{917BE4B4-5CF1-47D5-8C6C-3BF2D95A8D47}">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>DashBoardFinanceiroIAnualD!F5:F16</xm:f>
-              <xm:sqref>D7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -26535,11 +26535,11 @@
       </c>
       <c r="C26" s="125">
         <f ca="1">SUMIFS(TbRegistroEntradas[Dias de atraso],TbRegistroEntradas[Ano Competência],B4,TbRegistroEntradas[Dias de atraso],"&gt;0")</f>
-        <v>15041</v>
+        <v>15230</v>
       </c>
       <c r="D26" s="125">
         <f ca="1">C26/B26</f>
-        <v>884.76470588235293</v>
+        <v>895.88235294117646</v>
       </c>
       <c r="E26" s="102"/>
       <c r="F26" s="123">
@@ -26552,11 +26552,11 @@
       </c>
       <c r="H26" s="125">
         <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Ano Competência],B4,TbRegistroSaídas[Dias de Atraso],"&gt;0")</f>
-        <v>16919</v>
+        <v>17135</v>
       </c>
       <c r="I26" s="125">
         <f ca="1">H26/G26</f>
-        <v>1409.9166666666667</v>
+        <v>1427.9166666666667</v>
       </c>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
@@ -26881,7 +26881,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27544,11 +27544,11 @@
       </c>
       <c r="C26" s="125">
         <f ca="1">SUMIFS(TbRegistroEntradas[Dias de atraso],TbRegistroEntradas[Ano Competência],B4,TbRegistroEntradas[Dias de atraso],"&gt;0",TbRegistroEntradas[Data da Competência],"&lt;="&amp;B28)</f>
-        <v>15041</v>
+        <v>15230</v>
       </c>
       <c r="D26" s="125">
         <f ca="1">C26/B26</f>
-        <v>884.76470588235293</v>
+        <v>895.88235294117646</v>
       </c>
       <c r="E26" s="102"/>
       <c r="F26" s="123">
@@ -27561,11 +27561,11 @@
       </c>
       <c r="H26" s="125">
         <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Ano Competência],B4,TbRegistroSaídas[Dias de Atraso],"&gt;0",TbRegistroSaídas[Data da Competência],"&lt;="&amp;B5)</f>
-        <v>16919</v>
+        <v>17135</v>
       </c>
       <c r="I26" s="125">
         <f ca="1">H26/G26</f>
-        <v>1409.9166666666667</v>
+        <v>1427.9166666666667</v>
       </c>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
@@ -27895,7 +27895,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28159,10 +28159,10 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="143"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -28481,10 +28481,10 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="145"/>
+      <c r="C3" s="146"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -28643,7 +28643,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -28653,13 +28653,14 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
     <col min="7" max="7" width="57.44140625" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="42" style="12" customWidth="1"/>
     <col min="9" max="9" width="24.5546875" style="34" hidden="1" customWidth="1"/>
     <col min="10" max="17" width="32.44140625" style="34" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
@@ -28800,7 +28801,7 @@
         <v>2017</v>
       </c>
       <c r="O4" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O2),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P4" s="34" t="str">
@@ -28859,7 +28860,7 @@
         <v>2017</v>
       </c>
       <c r="O5" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O3),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P5" s="34" t="str">
@@ -28918,7 +28919,7 @@
         <v>2017</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O4),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P6" s="34" t="str">
@@ -28977,7 +28978,7 @@
         <v>2017</v>
       </c>
       <c r="O7" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O5),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P7" s="34" t="str">
@@ -29036,7 +29037,7 @@
         <v>2017</v>
       </c>
       <c r="O8" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O6),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P8" s="34" t="str">
@@ -29095,7 +29096,7 @@
         <v>2017</v>
       </c>
       <c r="O9" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O7),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P9" s="34" t="str">
@@ -29154,7 +29155,7 @@
         <v>2017</v>
       </c>
       <c r="O10" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O8),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P10" s="34" t="str">
@@ -29213,7 +29214,7 @@
         <v>2017</v>
       </c>
       <c r="O11" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O9),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P11" s="34" t="str">
@@ -29272,7 +29273,7 @@
         <v>2017</v>
       </c>
       <c r="O12" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O10),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P12" s="34" t="str">
@@ -29331,7 +29332,7 @@
         <v>2017</v>
       </c>
       <c r="O13" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O11),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P13" s="34" t="str">
@@ -29340,7 +29341,7 @@
       </c>
       <c r="Q13" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2661</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29390,7 +29391,7 @@
         <v>2017</v>
       </c>
       <c r="O14" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O12),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P14" s="34" t="str">
@@ -29449,7 +29450,7 @@
         <v>2017</v>
       </c>
       <c r="O15" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O13),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P15" s="34" t="str">
@@ -29508,7 +29509,7 @@
         <v>2017</v>
       </c>
       <c r="O16" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O14),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P16" s="34" t="str">
@@ -29567,7 +29568,7 @@
         <v>2017</v>
       </c>
       <c r="O17" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O15),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P17" s="34" t="str">
@@ -29626,7 +29627,7 @@
         <v>2017</v>
       </c>
       <c r="O18" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O16),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P18" s="34" t="str">
@@ -29685,7 +29686,7 @@
         <v>2017</v>
       </c>
       <c r="O19" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O17),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P19" s="34" t="str">
@@ -29744,7 +29745,7 @@
         <v>2017</v>
       </c>
       <c r="O20" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O18),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P20" s="34" t="str">
@@ -29803,7 +29804,7 @@
         <v>2017</v>
       </c>
       <c r="O21" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O19),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P21" s="34" t="str">
@@ -29862,7 +29863,7 @@
         <v>2017</v>
       </c>
       <c r="O22" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O20),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P22" s="34" t="str">
@@ -29921,7 +29922,7 @@
         <v>2017</v>
       </c>
       <c r="O23" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O21),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P23" s="34" t="str">
@@ -29980,7 +29981,7 @@
         <v>2017</v>
       </c>
       <c r="O24" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O22),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P24" s="34" t="str">
@@ -29989,7 +29990,7 @@
       </c>
       <c r="Q24" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2629</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30039,7 +30040,7 @@
         <v>2017</v>
       </c>
       <c r="O25" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O23),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P25" s="34" t="str">
@@ -30098,7 +30099,7 @@
         <v>2017</v>
       </c>
       <c r="O26" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O24),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P26" s="34" t="str">
@@ -30157,7 +30158,7 @@
         <v>2017</v>
       </c>
       <c r="O27" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O25),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P27" s="34" t="str">
@@ -30216,7 +30217,7 @@
         <v>2017</v>
       </c>
       <c r="O28" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O26),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P28" s="34" t="str">
@@ -30275,7 +30276,7 @@
         <v>2017</v>
       </c>
       <c r="O29" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O27),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P29" s="34" t="str">
@@ -30334,7 +30335,7 @@
         <v>2017</v>
       </c>
       <c r="O30" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O28),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P30" s="34" t="str">
@@ -30393,7 +30394,7 @@
         <v>2017</v>
       </c>
       <c r="O31" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O29),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P31" s="34" t="str">
@@ -30402,7 +30403,7 @@
       </c>
       <c r="Q31" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2617</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30452,7 +30453,7 @@
         <v>2017</v>
       </c>
       <c r="O32" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O30),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P32" s="34" t="str">
@@ -30511,7 +30512,7 @@
         <v>2017</v>
       </c>
       <c r="O33" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O31),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P33" s="34" t="str">
@@ -30570,7 +30571,7 @@
         <v>2017</v>
       </c>
       <c r="O34" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O32),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P34" s="34" t="str">
@@ -30629,7 +30630,7 @@
         <v>2018</v>
       </c>
       <c r="O35" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O33),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P35" s="34" t="str">
@@ -30688,7 +30689,7 @@
         <v>2017</v>
       </c>
       <c r="O36" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O34),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P36" s="34" t="str">
@@ -30747,7 +30748,7 @@
         <v>2018</v>
       </c>
       <c r="O37" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O35),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P37" s="34" t="str">
@@ -30756,7 +30757,7 @@
       </c>
       <c r="Q37" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2573</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30806,7 +30807,7 @@
         <v>2017</v>
       </c>
       <c r="O38" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O36),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P38" s="34" t="str">
@@ -30865,7 +30866,7 @@
         <v>2017</v>
       </c>
       <c r="O39" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O37),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P39" s="34" t="str">
@@ -30924,7 +30925,7 @@
         <v>2018</v>
       </c>
       <c r="O40" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O38),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P40" s="34" t="str">
@@ -30983,7 +30984,7 @@
         <v>2017</v>
       </c>
       <c r="O41" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O39),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P41" s="34" t="str">
@@ -31042,7 +31043,7 @@
         <v>2017</v>
       </c>
       <c r="O42" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O40),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P42" s="34" t="str">
@@ -31101,7 +31102,7 @@
         <v>2017</v>
       </c>
       <c r="O43" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O41),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P43" s="34" t="str">
@@ -31160,7 +31161,7 @@
         <v>2017</v>
       </c>
       <c r="O44" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O42),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P44" s="34" t="str">
@@ -31219,7 +31220,7 @@
         <v>2018</v>
       </c>
       <c r="O45" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O43),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P45" s="34" t="str">
@@ -31278,7 +31279,7 @@
         <v>2017</v>
       </c>
       <c r="O46" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O44),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P46" s="34" t="str">
@@ -31337,7 +31338,7 @@
         <v>2018</v>
       </c>
       <c r="O47" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O45),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P47" s="34" t="str">
@@ -31396,7 +31397,7 @@
         <v>2018</v>
       </c>
       <c r="O48" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O46),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P48" s="34" t="str">
@@ -31455,7 +31456,7 @@
         <v>2018</v>
       </c>
       <c r="O49" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O47),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P49" s="34" t="str">
@@ -31514,7 +31515,7 @@
         <v>2017</v>
       </c>
       <c r="O50" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O48),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P50" s="34" t="str">
@@ -31573,7 +31574,7 @@
         <v>2018</v>
       </c>
       <c r="O51" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O49),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P51" s="34" t="str">
@@ -31632,7 +31633,7 @@
         <v>2017</v>
       </c>
       <c r="O52" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O50),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P52" s="34" t="str">
@@ -31691,7 +31692,7 @@
         <v>2018</v>
       </c>
       <c r="O53" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O51),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P53" s="34" t="str">
@@ -31750,7 +31751,7 @@
         <v>2018</v>
       </c>
       <c r="O54" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O52),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P54" s="34" t="str">
@@ -31809,7 +31810,7 @@
         <v>2018</v>
       </c>
       <c r="O55" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O53),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P55" s="34" t="str">
@@ -31818,7 +31819,7 @@
       </c>
       <c r="Q55" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2515</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -31868,7 +31869,7 @@
         <v>2018</v>
       </c>
       <c r="O56" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O54),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P56" s="34" t="str">
@@ -31927,7 +31928,7 @@
         <v>2018</v>
       </c>
       <c r="O57" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O55),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P57" s="34" t="str">
@@ -31986,7 +31987,7 @@
         <v>2018</v>
       </c>
       <c r="O58" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O56),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P58" s="34" t="str">
@@ -32045,7 +32046,7 @@
         <v>2018</v>
       </c>
       <c r="O59" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O57),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P59" s="34" t="str">
@@ -32104,7 +32105,7 @@
         <v>2018</v>
       </c>
       <c r="O60" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O58),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P60" s="34" t="str">
@@ -32163,7 +32164,7 @@
         <v>2018</v>
       </c>
       <c r="O61" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O59),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P61" s="34" t="str">
@@ -32222,7 +32223,7 @@
         <v>2018</v>
       </c>
       <c r="O62" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O60),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P62" s="34" t="str">
@@ -32281,7 +32282,7 @@
         <v>2018</v>
       </c>
       <c r="O63" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O61),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P63" s="34" t="str">
@@ -32340,7 +32341,7 @@
         <v>2018</v>
       </c>
       <c r="O64" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O62),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P64" s="34" t="str">
@@ -32399,7 +32400,7 @@
         <v>2018</v>
       </c>
       <c r="O65" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O63),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P65" s="34" t="str">
@@ -32458,7 +32459,7 @@
         <v>2018</v>
       </c>
       <c r="O66" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O64),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P66" s="34" t="str">
@@ -32467,7 +32468,7 @@
       </c>
       <c r="Q66" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2484</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -32517,7 +32518,7 @@
         <v>2018</v>
       </c>
       <c r="O67" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O65),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P67" s="34" t="str">
@@ -32576,7 +32577,7 @@
         <v>2018</v>
       </c>
       <c r="O68" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O66),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P68" s="34" t="str">
@@ -32635,7 +32636,7 @@
         <v>2018</v>
       </c>
       <c r="O69" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O67),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P69" s="34" t="str">
@@ -32694,7 +32695,7 @@
         <v>2018</v>
       </c>
       <c r="O70" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O68),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P70" s="34" t="str">
@@ -32753,7 +32754,7 @@
         <v>2018</v>
       </c>
       <c r="O71" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O69),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P71" s="34" t="str">
@@ -32812,7 +32813,7 @@
         <v>2018</v>
       </c>
       <c r="O72" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O70),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P72" s="34" t="str">
@@ -32821,7 +32822,7 @@
       </c>
       <c r="Q72" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2469</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -32871,7 +32872,7 @@
         <v>2018</v>
       </c>
       <c r="O73" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O71),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P73" s="34" t="str">
@@ -32930,7 +32931,7 @@
         <v>2018</v>
       </c>
       <c r="O74" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O72),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P74" s="34" t="str">
@@ -32989,7 +32990,7 @@
         <v>2018</v>
       </c>
       <c r="O75" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O73),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P75" s="34" t="str">
@@ -32998,7 +32999,7 @@
       </c>
       <c r="Q75" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2472</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="76" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -33048,7 +33049,7 @@
         <v>2018</v>
       </c>
       <c r="O76" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O74),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P76" s="34" t="str">
@@ -33107,7 +33108,7 @@
         <v>2018</v>
       </c>
       <c r="O77" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O75),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P77" s="34" t="str">
@@ -33166,7 +33167,7 @@
         <v>2018</v>
       </c>
       <c r="O78" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O76),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P78" s="34" t="str">
@@ -33225,7 +33226,7 @@
         <v>2018</v>
       </c>
       <c r="O79" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O77),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P79" s="34" t="str">
@@ -33284,7 +33285,7 @@
         <v>2018</v>
       </c>
       <c r="O80" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O78),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P80" s="34" t="str">
@@ -33343,7 +33344,7 @@
         <v>2018</v>
       </c>
       <c r="O81" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O79),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P81" s="34" t="str">
@@ -33402,7 +33403,7 @@
         <v>2018</v>
       </c>
       <c r="O82" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O80),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P82" s="34" t="str">
@@ -33461,7 +33462,7 @@
         <v>2018</v>
       </c>
       <c r="O83" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O81),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P83" s="34" t="str">
@@ -33520,7 +33521,7 @@
         <v>2018</v>
       </c>
       <c r="O84" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O82),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P84" s="34" t="str">
@@ -33579,7 +33580,7 @@
         <v>2018</v>
       </c>
       <c r="O85" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O83),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P85" s="34" t="str">
@@ -33638,7 +33639,7 @@
         <v>2018</v>
       </c>
       <c r="O86" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O84),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P86" s="34" t="str">
@@ -33697,7 +33698,7 @@
         <v>2018</v>
       </c>
       <c r="O87" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O85),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P87" s="34" t="str">
@@ -33756,7 +33757,7 @@
         <v>2018</v>
       </c>
       <c r="O88" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O86),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P88" s="34" t="str">
@@ -33815,7 +33816,7 @@
         <v>2018</v>
       </c>
       <c r="O89" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O87),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P89" s="34" t="str">
@@ -33874,7 +33875,7 @@
         <v>2018</v>
       </c>
       <c r="O90" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O88),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P90" s="34" t="str">
@@ -33933,7 +33934,7 @@
         <v>2018</v>
       </c>
       <c r="O91" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O89),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P91" s="34" t="str">
@@ -33942,7 +33943,7 @@
       </c>
       <c r="Q91" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2414</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="92" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -33992,7 +33993,7 @@
         <v>2018</v>
       </c>
       <c r="O92" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O90),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P92" s="34" t="str">
@@ -34051,7 +34052,7 @@
         <v>2018</v>
       </c>
       <c r="O93" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O91),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P93" s="34" t="str">
@@ -34110,7 +34111,7 @@
         <v>2018</v>
       </c>
       <c r="O94" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O92),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P94" s="34" t="str">
@@ -34169,7 +34170,7 @@
         <v>2018</v>
       </c>
       <c r="O95" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O93),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P95" s="34" t="str">
@@ -34228,7 +34229,7 @@
         <v>2018</v>
       </c>
       <c r="O96" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O94),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P96" s="34" t="str">
@@ -34287,7 +34288,7 @@
         <v>2018</v>
       </c>
       <c r="O97" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O95),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P97" s="34" t="str">
@@ -34346,7 +34347,7 @@
         <v>2018</v>
       </c>
       <c r="O98" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O96),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P98" s="34" t="str">
@@ -34405,7 +34406,7 @@
         <v>2018</v>
       </c>
       <c r="O99" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O97),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P99" s="34" t="str">
@@ -34464,7 +34465,7 @@
         <v>2018</v>
       </c>
       <c r="O100" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O98),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P100" s="34" t="str">
@@ -34523,7 +34524,7 @@
         <v>2018</v>
       </c>
       <c r="O101" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O99),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P101" s="34" t="str">
@@ -34582,7 +34583,7 @@
         <v>2018</v>
       </c>
       <c r="O102" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O100),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P102" s="34" t="str">
@@ -34641,7 +34642,7 @@
         <v>2018</v>
       </c>
       <c r="O103" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O101),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P103" s="34" t="str">
@@ -34700,7 +34701,7 @@
         <v>2018</v>
       </c>
       <c r="O104" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O102),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P104" s="34" t="str">
@@ -34759,7 +34760,7 @@
         <v>2018</v>
       </c>
       <c r="O105" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O103),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P105" s="34" t="str">
@@ -34818,7 +34819,7 @@
         <v>2018</v>
       </c>
       <c r="O106" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O104),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P106" s="34" t="str">
@@ -34877,7 +34878,7 @@
         <v>2018</v>
       </c>
       <c r="O107" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O105),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P107" s="34" t="str">
@@ -34936,7 +34937,7 @@
         <v>2018</v>
       </c>
       <c r="O108" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O106),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P108" s="34" t="str">
@@ -34995,7 +34996,7 @@
         <v>2018</v>
       </c>
       <c r="O109" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O107),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P109" s="34" t="str">
@@ -35054,7 +35055,7 @@
         <v>2018</v>
       </c>
       <c r="O110" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O108),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P110" s="34" t="str">
@@ -35113,7 +35114,7 @@
         <v>2018</v>
       </c>
       <c r="O111" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O109),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P111" s="34" t="str">
@@ -35172,7 +35173,7 @@
         <v>2018</v>
       </c>
       <c r="O112" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O110),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P112" s="34" t="str">
@@ -35231,7 +35232,7 @@
         <v>2018</v>
       </c>
       <c r="O113" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O111),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P113" s="34" t="str">
@@ -35290,7 +35291,7 @@
         <v>2018</v>
       </c>
       <c r="O114" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O112),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P114" s="34" t="str">
@@ -35349,7 +35350,7 @@
         <v>2018</v>
       </c>
       <c r="O115" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O113),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P115" s="34" t="str">
@@ -35408,7 +35409,7 @@
         <v>2018</v>
       </c>
       <c r="O116" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O114),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P116" s="34" t="str">
@@ -35467,7 +35468,7 @@
         <v>2018</v>
       </c>
       <c r="O117" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O115),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P117" s="34" t="str">
@@ -35526,7 +35527,7 @@
         <v>2018</v>
       </c>
       <c r="O118" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O116),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P118" s="34" t="str">
@@ -35585,7 +35586,7 @@
         <v>2018</v>
       </c>
       <c r="O119" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O117),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P119" s="34" t="str">
@@ -35644,7 +35645,7 @@
         <v>2018</v>
       </c>
       <c r="O120" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O118),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P120" s="34" t="str">
@@ -35703,7 +35704,7 @@
         <v>2018</v>
       </c>
       <c r="O121" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O119),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P121" s="34" t="str">
@@ -35762,7 +35763,7 @@
         <v>2018</v>
       </c>
       <c r="O122" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O120),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P122" s="34" t="str">
@@ -35821,7 +35822,7 @@
         <v>2018</v>
       </c>
       <c r="O123" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O121),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P123" s="34" t="str">
@@ -35880,7 +35881,7 @@
         <v>2018</v>
       </c>
       <c r="O124" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O122),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P124" s="34" t="str">
@@ -35889,7 +35890,7 @@
       </c>
       <c r="Q124" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2328</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="125" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -35939,7 +35940,7 @@
         <v>2018</v>
       </c>
       <c r="O125" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O123),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P125" s="34" t="str">
@@ -35948,7 +35949,7 @@
       </c>
       <c r="Q125" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2370</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="126" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -35998,7 +35999,7 @@
         <v>2018</v>
       </c>
       <c r="O126" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O124),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P126" s="34" t="str">
@@ -36057,7 +36058,7 @@
         <v>2018</v>
       </c>
       <c r="O127" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O125),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P127" s="34" t="str">
@@ -36066,7 +36067,7 @@
       </c>
       <c r="Q127" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2364</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="128" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -36116,7 +36117,7 @@
         <v>2018</v>
       </c>
       <c r="O128" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O126),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P128" s="34" t="str">
@@ -36175,7 +36176,7 @@
         <v>2018</v>
       </c>
       <c r="O129" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O127),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P129" s="34" t="str">
@@ -36234,7 +36235,7 @@
         <v>2018</v>
       </c>
       <c r="O130" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O128),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P130" s="34" t="str">
@@ -36293,7 +36294,7 @@
         <v>2018</v>
       </c>
       <c r="O131" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O129),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P131" s="34" t="str">
@@ -36352,7 +36353,7 @@
         <v>2018</v>
       </c>
       <c r="O132" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O130),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P132" s="34" t="str">
@@ -36411,7 +36412,7 @@
         <v>2018</v>
       </c>
       <c r="O133" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O131),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P133" s="34" t="str">
@@ -36470,7 +36471,7 @@
         <v>2018</v>
       </c>
       <c r="O134" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O132),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P134" s="34" t="str">
@@ -36529,7 +36530,7 @@
         <v>2018</v>
       </c>
       <c r="O135" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O133),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P135" s="34" t="str">
@@ -36588,7 +36589,7 @@
         <v>2018</v>
       </c>
       <c r="O136" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O134),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P136" s="34" t="str">
@@ -36647,7 +36648,7 @@
         <v>2018</v>
       </c>
       <c r="O137" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O135),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P137" s="34" t="str">
@@ -36706,7 +36707,7 @@
         <v>2018</v>
       </c>
       <c r="O138" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O136),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P138" s="34" t="str">
@@ -36765,7 +36766,7 @@
         <v>2018</v>
       </c>
       <c r="O139" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O137),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P139" s="34" t="str">
@@ -36824,7 +36825,7 @@
         <v>2018</v>
       </c>
       <c r="O140" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O138),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P140" s="34" t="str">
@@ -36883,7 +36884,7 @@
         <v>2018</v>
       </c>
       <c r="O141" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O139),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P141" s="34" t="str">
@@ -36942,7 +36943,7 @@
         <v>2018</v>
       </c>
       <c r="O142" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O140),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P142" s="34" t="str">
@@ -37001,7 +37002,7 @@
         <v>2018</v>
       </c>
       <c r="O143" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O141),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P143" s="34" t="str">
@@ -37060,7 +37061,7 @@
         <v>2018</v>
       </c>
       <c r="O144" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O142),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P144" s="34" t="str">
@@ -37119,7 +37120,7 @@
         <v>2018</v>
       </c>
       <c r="O145" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O143),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P145" s="34" t="str">
@@ -37178,7 +37179,7 @@
         <v>2018</v>
       </c>
       <c r="O146" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O144),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P146" s="34" t="str">
@@ -37237,7 +37238,7 @@
         <v>2018</v>
       </c>
       <c r="O147" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O145),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P147" s="34" t="str">
@@ -37296,7 +37297,7 @@
         <v>2018</v>
       </c>
       <c r="O148" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O146),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P148" s="34" t="str">
@@ -37355,7 +37356,7 @@
         <v>2018</v>
       </c>
       <c r="O149" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O147),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P149" s="34" t="str">
@@ -37414,7 +37415,7 @@
         <v>2018</v>
       </c>
       <c r="O150" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O148),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P150" s="34" t="str">
@@ -37473,7 +37474,7 @@
         <v>2018</v>
       </c>
       <c r="O151" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O149),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P151" s="34" t="str">
@@ -37532,7 +37533,7 @@
         <v>2018</v>
       </c>
       <c r="O152" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O150),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P152" s="34" t="str">
@@ -37541,7 +37542,7 @@
       </c>
       <c r="Q152" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2236</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="153" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -37591,7 +37592,7 @@
         <v>2018</v>
       </c>
       <c r="O153" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O151),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P153" s="34" t="str">
@@ -37650,7 +37651,7 @@
         <v>2018</v>
       </c>
       <c r="O154" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O152),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P154" s="34" t="str">
@@ -37709,7 +37710,7 @@
         <v>2018</v>
       </c>
       <c r="O155" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O153),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P155" s="34" t="str">
@@ -37768,7 +37769,7 @@
         <v>2018</v>
       </c>
       <c r="O156" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O154),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P156" s="34" t="str">
@@ -37777,7 +37778,7 @@
       </c>
       <c r="Q156" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2271</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="157" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -37827,7 +37828,7 @@
         <v>2018</v>
       </c>
       <c r="O157" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O155),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P157" s="34" t="str">
@@ -37886,7 +37887,7 @@
         <v>2018</v>
       </c>
       <c r="O158" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O156),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P158" s="34" t="str">
@@ -37945,7 +37946,7 @@
         <v>2018</v>
       </c>
       <c r="O159" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O157),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P159" s="34" t="str">
@@ -38004,7 +38005,7 @@
         <v>2018</v>
       </c>
       <c r="O160" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O158),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P160" s="34" t="str">
@@ -38063,7 +38064,7 @@
         <v>2018</v>
       </c>
       <c r="O161" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O159),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P161" s="34" t="str">
@@ -38122,7 +38123,7 @@
         <v>2018</v>
       </c>
       <c r="O162" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O160),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P162" s="34" t="str">
@@ -38181,7 +38182,7 @@
         <v>2018</v>
       </c>
       <c r="O163" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O161),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P163" s="34" t="str">
@@ -38240,7 +38241,7 @@
         <v>2018</v>
       </c>
       <c r="O164" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O162),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P164" s="34" t="str">
@@ -38299,7 +38300,7 @@
         <v>2018</v>
       </c>
       <c r="O165" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O163),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P165" s="34" t="str">
@@ -38358,7 +38359,7 @@
         <v>2018</v>
       </c>
       <c r="O166" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O164),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P166" s="34" t="str">
@@ -38417,7 +38418,7 @@
         <v>2019</v>
       </c>
       <c r="O167" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O165),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P167" s="34" t="str">
@@ -38426,7 +38427,7 @@
       </c>
       <c r="Q167" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2187</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="168" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -38476,7 +38477,7 @@
         <v>2019</v>
       </c>
       <c r="O168" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O166),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P168" s="34" t="str">
@@ -38535,7 +38536,7 @@
         <v>2019</v>
       </c>
       <c r="O169" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O167),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P169" s="34" t="str">
@@ -38594,7 +38595,7 @@
         <v>2018</v>
       </c>
       <c r="O170" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O168),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P170" s="34" t="str">
@@ -38653,7 +38654,7 @@
         <v>2019</v>
       </c>
       <c r="O171" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O169),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P171" s="34" t="str">
@@ -38712,7 +38713,7 @@
         <v>2018</v>
       </c>
       <c r="O172" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O170),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P172" s="34" t="str">
@@ -38771,7 +38772,7 @@
         <v>2019</v>
       </c>
       <c r="O173" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O171),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P173" s="34" t="str">
@@ -38830,7 +38831,7 @@
         <v>2019</v>
       </c>
       <c r="O174" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O172),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P174" s="34" t="str">
@@ -38889,7 +38890,7 @@
         <v>2019</v>
       </c>
       <c r="O175" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O173),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P175" s="34" t="str">
@@ -38948,7 +38949,7 @@
         <v>2019</v>
       </c>
       <c r="O176" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O174),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P176" s="34" t="str">
@@ -39007,7 +39008,7 @@
         <v>2019</v>
       </c>
       <c r="O177" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O175),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P177" s="34" t="str">
@@ -39066,7 +39067,7 @@
         <v>2019</v>
       </c>
       <c r="O178" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O176),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P178" s="34" t="str">
@@ -39125,7 +39126,7 @@
         <v>2019</v>
       </c>
       <c r="O179" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O177),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P179" s="34" t="str">
@@ -39184,7 +39185,7 @@
         <v>2019</v>
       </c>
       <c r="O180" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O178),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P180" s="34" t="str">
@@ -39193,7 +39194,7 @@
       </c>
       <c r="Q180" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2152</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="181" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39243,7 +39244,7 @@
         <v>2019</v>
       </c>
       <c r="O181" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O179),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P181" s="34" t="str">
@@ -39302,7 +39303,7 @@
         <v>2019</v>
       </c>
       <c r="O182" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O180),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P182" s="34" t="str">
@@ -39311,7 +39312,7 @@
       </c>
       <c r="Q182" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2161</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="183" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39361,7 +39362,7 @@
         <v>2019</v>
       </c>
       <c r="O183" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O181),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P183" s="34" t="str">
@@ -39420,7 +39421,7 @@
         <v>2019</v>
       </c>
       <c r="O184" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O182),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P184" s="34" t="str">
@@ -39479,7 +39480,7 @@
         <v>2019</v>
       </c>
       <c r="O185" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O183),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P185" s="34" t="str">
@@ -39538,7 +39539,7 @@
         <v>2019</v>
       </c>
       <c r="O186" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O184),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P186" s="34" t="str">
@@ -39597,7 +39598,7 @@
         <v>2019</v>
       </c>
       <c r="O187" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O185),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P187" s="34" t="str">
@@ -39656,7 +39657,7 @@
         <v>2019</v>
       </c>
       <c r="O188" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O186),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P188" s="34" t="str">
@@ -39715,7 +39716,7 @@
         <v>2019</v>
       </c>
       <c r="O189" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O187),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P189" s="34" t="str">
@@ -39774,7 +39775,7 @@
         <v>2019</v>
       </c>
       <c r="O190" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O188),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P190" s="34" t="str">
@@ -39833,7 +39834,7 @@
         <v>2019</v>
       </c>
       <c r="O191" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O189),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P191" s="34" t="str">
@@ -39892,7 +39893,7 @@
         <v>2019</v>
       </c>
       <c r="O192" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O190),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P192" s="34" t="str">
@@ -39951,7 +39952,7 @@
         <v>2019</v>
       </c>
       <c r="O193" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O191),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P193" s="34" t="str">
@@ -40010,7 +40011,7 @@
         <v>2019</v>
       </c>
       <c r="O194" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O192),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P194" s="34" t="str">
@@ -40069,7 +40070,7 @@
         <v>2019</v>
       </c>
       <c r="O195" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O193),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P195" s="34" t="str">
@@ -40128,7 +40129,7 @@
         <v>2019</v>
       </c>
       <c r="O196" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O194),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P196" s="34" t="str">
@@ -40187,7 +40188,7 @@
         <v>2019</v>
       </c>
       <c r="O197" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O195),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P197" s="34" t="str">
@@ -40246,7 +40247,7 @@
         <v>2019</v>
       </c>
       <c r="O198" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O196),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P198" s="34" t="str">
@@ -40305,7 +40306,7 @@
         <v>2019</v>
       </c>
       <c r="O199" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O197),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P199" s="34" t="str">
@@ -40364,7 +40365,7 @@
         <v>2019</v>
       </c>
       <c r="O200" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O198),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P200" s="34" t="str">
@@ -40423,7 +40424,7 @@
         <v>2019</v>
       </c>
       <c r="O201" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O199),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P201" s="34" t="str">
@@ -40482,7 +40483,7 @@
         <v>2019</v>
       </c>
       <c r="O202" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O200),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P202" s="34" t="str">
@@ -40491,7 +40492,7 @@
       </c>
       <c r="Q202" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2088</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="203" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -40541,7 +40542,7 @@
         <v>2019</v>
       </c>
       <c r="O203" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O201),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P203" s="34" t="str">
@@ -40600,7 +40601,7 @@
         <v>2019</v>
       </c>
       <c r="O204" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O202),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P204" s="34" t="str">
@@ -40659,7 +40660,7 @@
         <v>2019</v>
       </c>
       <c r="O205" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O203),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P205" s="34" t="str">
@@ -40718,7 +40719,7 @@
         <v>2019</v>
       </c>
       <c r="O206" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O204),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P206" s="34" t="str">
@@ -40777,7 +40778,7 @@
         <v>2019</v>
       </c>
       <c r="O207" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O205),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P207" s="34" t="str">
@@ -40836,7 +40837,7 @@
         <v>2019</v>
       </c>
       <c r="O208" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O206),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P208" s="34" t="str">
@@ -40895,7 +40896,7 @@
         <v>2019</v>
       </c>
       <c r="O209" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O207),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P209" s="34" t="str">
@@ -40954,7 +40955,7 @@
         <v>2019</v>
       </c>
       <c r="O210" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O208),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P210" s="34" t="str">
@@ -40963,7 +40964,7 @@
       </c>
       <c r="Q210" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2095</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="211" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -41013,7 +41014,7 @@
         <v>2019</v>
       </c>
       <c r="O211" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O209),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P211" s="34" t="str">
@@ -41072,7 +41073,7 @@
         <v>2019</v>
       </c>
       <c r="O212" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O210),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P212" s="34" t="str">
@@ -41131,7 +41132,7 @@
         <v>2019</v>
       </c>
       <c r="O213" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O211),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P213" s="34" t="str">
@@ -41190,7 +41191,7 @@
         <v>2019</v>
       </c>
       <c r="O214" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O212),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P214" s="34" t="str">
@@ -41249,7 +41250,7 @@
         <v>2019</v>
       </c>
       <c r="O215" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O213),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P215" s="34" t="str">
@@ -41308,7 +41309,7 @@
         <v>2019</v>
       </c>
       <c r="O216" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O214),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P216" s="34" t="str">
@@ -41367,7 +41368,7 @@
         <v>2019</v>
       </c>
       <c r="O217" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O215),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P217" s="34" t="str">
@@ -41426,7 +41427,7 @@
         <v>2019</v>
       </c>
       <c r="O218" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O216),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P218" s="34" t="str">
@@ -41485,7 +41486,7 @@
         <v>2019</v>
       </c>
       <c r="O219" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O217),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P219" s="34" t="str">
@@ -41544,7 +41545,7 @@
         <v>2019</v>
       </c>
       <c r="O220" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O218),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P220" s="34" t="str">
@@ -41603,7 +41604,7 @@
         <v>2019</v>
       </c>
       <c r="O221" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O219),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P221" s="34" t="str">
@@ -41662,7 +41663,7 @@
         <v>2019</v>
       </c>
       <c r="O222" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O220),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P222" s="34" t="str">
@@ -41721,7 +41722,7 @@
         <v>2019</v>
       </c>
       <c r="O223" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O221),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P223" s="34" t="str">
@@ -41730,7 +41731,7 @@
       </c>
       <c r="Q223" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2063</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="224" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -41780,7 +41781,7 @@
         <v>2019</v>
       </c>
       <c r="O224" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O222),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P224" s="34" t="str">
@@ -41839,7 +41840,7 @@
         <v>2019</v>
       </c>
       <c r="O225" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O223),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P225" s="34" t="str">
@@ -41848,7 +41849,7 @@
       </c>
       <c r="Q225" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2026</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="226" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -41898,7 +41899,7 @@
         <v>2019</v>
       </c>
       <c r="O226" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O224),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P226" s="34" t="str">
@@ -41957,7 +41958,7 @@
         <v>2019</v>
       </c>
       <c r="O227" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O225),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P227" s="34" t="str">
@@ -42016,7 +42017,7 @@
         <v>2019</v>
       </c>
       <c r="O228" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O226),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P228" s="34" t="str">
@@ -42075,7 +42076,7 @@
         <v>2019</v>
       </c>
       <c r="O229" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O227),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Vencida</v>
       </c>
       <c r="P229" s="34" t="str">
@@ -42084,7 +42085,7 @@
       </c>
       <c r="Q229" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2043</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="230" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -42134,7 +42135,7 @@
         <v>2019</v>
       </c>
       <c r="O230" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O228),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P230" s="34" t="str">
@@ -42193,7 +42194,7 @@
         <v>2019</v>
       </c>
       <c r="O231" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O229),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P231" s="34" t="str">
@@ -42252,7 +42253,7 @@
         <v>2019</v>
       </c>
       <c r="O232" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O230),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P232" s="34" t="str">
@@ -42311,7 +42312,7 @@
         <v>2019</v>
       </c>
       <c r="O233" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O231),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P233" s="34" t="str">
@@ -42370,7 +42371,7 @@
         <v>2019</v>
       </c>
       <c r="O234" s="34" t="str">
-        <f>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;RegistroEntradas!O232),"Vencida","Não Vencida")</f>
+        <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</f>
         <v>Não Vencida</v>
       </c>
       <c r="P234" s="34" t="str">
@@ -42404,9 +42405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6348CBD-4B08-4D91-8A25-D145BA857A1F}">
   <dimension ref="A1:V232"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42419,7 +42420,7 @@
     <col min="6" max="6" width="42.6640625" customWidth="1"/>
     <col min="7" max="7" width="36.6640625" customWidth="1"/>
     <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="15" width="24.5546875" style="34" hidden="1" customWidth="1"/>
+    <col min="9" max="15" width="24.5546875" style="34" customWidth="1"/>
     <col min="16" max="16" width="8.109375" customWidth="1"/>
     <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" hidden="1"/>
@@ -43012,7 +43013,7 @@
       </c>
       <c r="O13">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2690</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -43063,7 +43064,7 @@
       </c>
       <c r="O14">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2654</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -43318,7 +43319,7 @@
       </c>
       <c r="O19" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2659</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
@@ -44746,7 +44747,7 @@
       </c>
       <c r="O47" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2532</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -45103,7 +45104,7 @@
       </c>
       <c r="O54" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2523</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
@@ -45256,7 +45257,7 @@
       </c>
       <c r="O57" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2565</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
@@ -45358,7 +45359,7 @@
       </c>
       <c r="O59" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2562</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
@@ -45715,7 +45716,7 @@
       </c>
       <c r="O66" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2549</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
@@ -45919,7 +45920,7 @@
       </c>
       <c r="O70" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2539</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
@@ -47143,7 +47144,7 @@
       </c>
       <c r="O94" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2452</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
@@ -47296,7 +47297,7 @@
       </c>
       <c r="O97" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2423</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.3">
@@ -47347,7 +47348,7 @@
       </c>
       <c r="O98" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2446</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.3">
@@ -47551,7 +47552,7 @@
       </c>
       <c r="O102" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2396</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.3">
@@ -47755,7 +47756,7 @@
       </c>
       <c r="O106" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2421</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.3">
@@ -48112,7 +48113,7 @@
       </c>
       <c r="O113" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2386</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.3">
@@ -48265,7 +48266,7 @@
       </c>
       <c r="O116" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2369</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
@@ -48520,7 +48521,7 @@
       </c>
       <c r="O121" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2376</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
@@ -49336,7 +49337,7 @@
       </c>
       <c r="O137" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2321</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.3">
@@ -49387,7 +49388,7 @@
       </c>
       <c r="O138" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2316</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.3">
@@ -49642,7 +49643,7 @@
       </c>
       <c r="O143" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2257</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.3">
@@ -50356,7 +50357,7 @@
       </c>
       <c r="O157" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2257</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.3">
@@ -50866,7 +50867,7 @@
       </c>
       <c r="O167" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2194</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.3">
@@ -51580,7 +51581,7 @@
       </c>
       <c r="O181" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2165</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.3">
@@ -51733,7 +51734,7 @@
       </c>
       <c r="O184" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2171</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.3">
@@ -51988,7 +51989,7 @@
       </c>
       <c r="O189" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2153</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.3">
@@ -52243,7 +52244,7 @@
       </c>
       <c r="O194" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2102</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.3">
@@ -52753,7 +52754,7 @@
       </c>
       <c r="O204" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2069</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.3">
@@ -53008,7 +53009,7 @@
       </c>
       <c r="O209" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2085</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.3">
@@ -53773,7 +53774,7 @@
       </c>
       <c r="O224" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2029</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="225" spans="2:15" x14ac:dyDescent="0.3">
@@ -54028,7 +54029,7 @@
       </c>
       <c r="O229" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>1988</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.3">
@@ -54205,7 +54206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C04AE5-D8FB-4B59-A258-46FFAED4EE63}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -54227,13 +54230,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="146" t="s">
+      <c r="J1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="2:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>

--- a/Projeto 1/Projeto 1.xlsx
+++ b/Projeto 1/Projeto 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\Projetos\Excel Nelio Alves\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6719BABB-B1E0-438A-AE6F-BBB3ECCA06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E12292-2FF1-4546-A54F-7D01A0E8A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="612">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -3173,9 +3173,6 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3284,6 +3281,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -22305,15 +22305,12 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="10" item="1" hier="-1"/>
+    <pageField fld="10" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="166"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
     <format dxfId="5">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
@@ -22321,6 +22318,9 @@
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="3">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -22951,9 +22951,9 @@
   <data>
     <tabular pivotCacheId="1410878561">
       <items count="3">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -23221,13 +23221,13 @@
     <tableColumn id="14" xr3:uid="{4AC03C1C-8C17-408D-991F-8DFDA551EE2E}" name="Ano Previsto" dataDxfId="23">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{66D03C97-8D67-4EAE-86BD-2E2C5C71B03F}" name="Conta Vencida" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{66D03C97-8D67-4EAE-86BD-2E2C5C71B03F}" name="Conta Vencida" dataDxfId="22">
       <calculatedColumnFormula>IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]="",TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]] &lt; TODAY()),"Vencida","Não Vencida")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E4FAF820-CC28-488A-AF9F-B157478BFC1E}" name="Venda à Vista" dataDxfId="22">
+    <tableColumn id="12" xr3:uid="{E4FAF820-CC28-488A-AF9F-B157478BFC1E}" name="Venda à Vista" dataDxfId="21">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B64FAAA6-B68D-4E69-96BD-36ED63F29B70}" name="Dias de atraso" dataDxfId="21">
+    <tableColumn id="15" xr3:uid="{B64FAAA6-B68D-4E69-96BD-36ED63F29B70}" name="Dias de atraso" dataDxfId="20">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23236,35 +23236,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}" name="TbRegistroSaídas" displayName="TbRegistroSaídas" ref="B3:O232" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="B3:O232" xr:uid="{57A3FCCF-4EAD-4DD1-BDF7-5BFFD53A3F2A}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6B38345C-B48C-426E-815A-2D388B11333F}" name="Data do Caixa Registrado" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F1298A2D-F22F-4DAF-BFD8-E0706B1A4D02}" name="Data da Competência" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{35463D53-DA82-4FD9-81AA-A33453FF2713}" name="Data do Caixa Previsto" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6B38345C-B48C-426E-815A-2D388B11333F}" name="Data do Caixa Registrado" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F1298A2D-F22F-4DAF-BFD8-E0706B1A4D02}" name="Data da Competência" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{35463D53-DA82-4FD9-81AA-A33453FF2713}" name="Data do Caixa Previsto" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{A7C3FA66-3563-4A96-A48E-40DC72D43268}" name="Conta Nível 1"/>
     <tableColumn id="5" xr3:uid="{5BA048EC-D4E8-44AA-A13B-E60188DD6092}" name="Conta Nível 2"/>
     <tableColumn id="6" xr3:uid="{C3C1BF2D-BAA7-4D27-83AF-489B5141E248}" name="Histórico"/>
-    <tableColumn id="7" xr3:uid="{2C379022-6872-4584-B424-9A8294FD5E62}" name="Valor" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{B4A752E9-34D6-4A8D-A959-6507FB74B635}" name="Mês Caixa" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{2C379022-6872-4584-B424-9A8294FD5E62}" name="Valor" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{B4A752E9-34D6-4A8D-A959-6507FB74B635}" name="Mês Caixa" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3CC9CEA-B096-42F4-9D10-A856D7E85CCF}" name="Ano Caixa" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{B3CC9CEA-B096-42F4-9D10-A856D7E85CCF}" name="Ano Caixa" dataDxfId="11">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{863A6106-1E25-46D2-843E-A886081F6326}" name="Mês Competência" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{863A6106-1E25-46D2-843E-A886081F6326}" name="Mês Competência" dataDxfId="10">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{85D2B605-0281-4F89-804F-59BD56C748BD}" name="Ano Competência" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{85D2B605-0281-4F89-804F-59BD56C748BD}" name="Ano Competência" dataDxfId="9">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BC05A0D6-7626-48C3-B39F-88851272DE2C}" name="Mês Previsto" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{BC05A0D6-7626-48C3-B39F-88851272DE2C}" name="Mês Previsto" dataDxfId="8">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0221AB18-6B68-4980-B04E-F4CFB740E74D}" name="Ano Previsto" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{0221AB18-6B68-4980-B04E-F4CFB740E74D}" name="Ano Previsto" dataDxfId="7">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C2628CB3-B617-4775-BDB6-A5F3D25F790E}" name="Dias de Atraso" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{C2628CB3-B617-4775-BDB6-A5F3D25F790E}" name="Dias de Atraso" dataDxfId="6">
       <calculatedColumnFormula>IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23626,7 +23626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2EB0BD-1B27-444C-82E4-298693A72950}">
   <dimension ref="B1:XFC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -23684,8 +23684,8 @@
       <c r="B4" s="99" t="s">
         <v>539</v>
       </c>
-      <c r="C4" s="46">
-        <v>2018</v>
+      <c r="C4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23746,43 +23746,43 @@
         <v>25</v>
       </c>
       <c r="C8" s="47">
-        <v>20582</v>
+        <v>43479</v>
       </c>
       <c r="D8" s="47">
-        <v>24761</v>
+        <v>56516</v>
       </c>
       <c r="E8" s="47">
-        <v>37458</v>
+        <v>56059</v>
       </c>
       <c r="F8" s="47">
-        <v>30226</v>
+        <v>53165</v>
       </c>
       <c r="G8" s="47">
-        <v>19009</v>
+        <v>41611</v>
       </c>
       <c r="H8" s="47">
-        <v>28711</v>
+        <v>40576</v>
       </c>
       <c r="I8" s="47">
         <v>33298</v>
       </c>
       <c r="J8" s="47">
-        <v>22302</v>
+        <v>32438</v>
       </c>
       <c r="K8" s="47">
-        <v>26024</v>
+        <v>57887</v>
       </c>
       <c r="L8" s="47">
-        <v>29400</v>
+        <v>60137</v>
       </c>
       <c r="M8" s="47">
-        <v>30897</v>
+        <v>62513</v>
       </c>
       <c r="N8" s="47">
-        <v>17906</v>
+        <v>50431</v>
       </c>
       <c r="O8" s="47">
-        <v>320574</v>
+        <v>588110</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -23790,18 +23790,20 @@
         <v>31</v>
       </c>
       <c r="C9" s="47">
-        <v>1864</v>
-      </c>
-      <c r="D9" s="47"/>
+        <v>6857</v>
+      </c>
+      <c r="D9" s="47">
+        <v>4461</v>
+      </c>
       <c r="E9" s="47">
         <v>4800</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47">
-        <v>6340</v>
+        <v>10875</v>
       </c>
       <c r="H9" s="47">
-        <v>6836</v>
+        <v>9700</v>
       </c>
       <c r="I9" s="47">
         <v>2713</v>
@@ -23809,16 +23811,20 @@
       <c r="J9" s="47">
         <v>3080</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="47">
+        <v>2502</v>
+      </c>
       <c r="L9" s="47">
-        <v>4922</v>
+        <v>7137</v>
       </c>
       <c r="M9" s="47">
-        <v>919</v>
-      </c>
-      <c r="N9" s="47"/>
+        <v>7046</v>
+      </c>
+      <c r="N9" s="47">
+        <v>4559</v>
+      </c>
       <c r="O9" s="47">
-        <v>31474</v>
+        <v>63730</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -23829,15 +23835,17 @@
         <v>3843</v>
       </c>
       <c r="D10" s="47">
-        <v>10345</v>
+        <v>11762</v>
       </c>
       <c r="E10" s="47">
-        <v>5629</v>
+        <v>9651</v>
       </c>
       <c r="F10" s="47">
-        <v>4467</v>
-      </c>
-      <c r="G10" s="47"/>
+        <v>14524</v>
+      </c>
+      <c r="G10" s="47">
+        <v>5167</v>
+      </c>
       <c r="H10" s="47">
         <v>2114</v>
       </c>
@@ -23845,58 +23853,62 @@
         <v>8337</v>
       </c>
       <c r="J10" s="47">
-        <v>4072</v>
+        <v>7817</v>
       </c>
       <c r="K10" s="47">
-        <v>5761</v>
+        <v>14528</v>
       </c>
       <c r="L10" s="47">
-        <v>7117</v>
+        <v>10422</v>
       </c>
       <c r="M10" s="47">
-        <v>3068</v>
+        <v>10619</v>
       </c>
       <c r="N10" s="47">
-        <v>2088</v>
+        <v>16304</v>
       </c>
       <c r="O10" s="47">
-        <v>56841</v>
+        <v>115088</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="47">
+        <v>6759</v>
+      </c>
       <c r="D11" s="47">
-        <v>5718</v>
+        <v>13905</v>
       </c>
       <c r="E11" s="47">
-        <v>4918</v>
+        <v>10836</v>
       </c>
       <c r="F11" s="47">
-        <v>3446</v>
+        <v>5066</v>
       </c>
       <c r="G11" s="47">
-        <v>611</v>
+        <v>2805</v>
       </c>
       <c r="H11" s="47">
-        <v>3224</v>
+        <v>4706</v>
       </c>
       <c r="I11" s="47">
         <v>1306</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="47">
-        <v>6637</v>
-      </c>
-      <c r="L11" s="47"/>
+        <v>10681</v>
+      </c>
+      <c r="L11" s="47">
+        <v>6465</v>
+      </c>
       <c r="M11" s="47">
-        <v>1820</v>
+        <v>7373</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="47">
-        <v>27680</v>
+        <v>69902</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -23904,43 +23916,43 @@
         <v>34</v>
       </c>
       <c r="C12" s="47">
-        <v>10164</v>
+        <v>18745</v>
       </c>
       <c r="D12" s="47">
-        <v>7734</v>
+        <v>20692</v>
       </c>
       <c r="E12" s="47">
-        <v>9984</v>
+        <v>13156</v>
       </c>
       <c r="F12" s="47">
-        <v>22313</v>
+        <v>32957</v>
       </c>
       <c r="G12" s="47">
-        <v>4850</v>
+        <v>13902</v>
       </c>
       <c r="H12" s="47">
-        <v>12262</v>
+        <v>19226</v>
       </c>
       <c r="I12" s="47">
         <v>12594</v>
       </c>
       <c r="J12" s="47">
-        <v>6006</v>
+        <v>11590</v>
       </c>
       <c r="K12" s="47">
-        <v>11235</v>
+        <v>27785</v>
       </c>
       <c r="L12" s="47">
-        <v>10633</v>
+        <v>20341</v>
       </c>
       <c r="M12" s="47">
-        <v>20451</v>
+        <v>28005</v>
       </c>
       <c r="N12" s="47">
-        <v>9738</v>
+        <v>17080</v>
       </c>
       <c r="O12" s="47">
-        <v>137964</v>
+        <v>236073</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -23948,41 +23960,43 @@
         <v>35</v>
       </c>
       <c r="C13" s="47">
-        <v>4711</v>
+        <v>7275</v>
       </c>
       <c r="D13" s="47">
-        <v>964</v>
+        <v>5696</v>
       </c>
       <c r="E13" s="47">
-        <v>12127</v>
-      </c>
-      <c r="F13" s="47"/>
+        <v>17616</v>
+      </c>
+      <c r="F13" s="47">
+        <v>618</v>
+      </c>
       <c r="G13" s="47">
-        <v>7208</v>
+        <v>8862</v>
       </c>
       <c r="H13" s="47">
-        <v>4275</v>
+        <v>4830</v>
       </c>
       <c r="I13" s="47">
         <v>8348</v>
       </c>
       <c r="J13" s="47">
-        <v>9144</v>
+        <v>9951</v>
       </c>
       <c r="K13" s="47">
         <v>2391</v>
       </c>
       <c r="L13" s="47">
-        <v>6728</v>
+        <v>15772</v>
       </c>
       <c r="M13" s="47">
-        <v>4639</v>
+        <v>9470</v>
       </c>
       <c r="N13" s="47">
-        <v>6080</v>
+        <v>12488</v>
       </c>
       <c r="O13" s="47">
-        <v>66615</v>
+        <v>103317</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -23990,43 +24004,43 @@
         <v>542</v>
       </c>
       <c r="C14" s="47">
-        <v>20582</v>
+        <v>43479</v>
       </c>
       <c r="D14" s="47">
-        <v>24761</v>
+        <v>56516</v>
       </c>
       <c r="E14" s="47">
-        <v>37458</v>
+        <v>56059</v>
       </c>
       <c r="F14" s="47">
-        <v>30226</v>
+        <v>53165</v>
       </c>
       <c r="G14" s="47">
-        <v>19009</v>
+        <v>41611</v>
       </c>
       <c r="H14" s="47">
-        <v>28711</v>
+        <v>40576</v>
       </c>
       <c r="I14" s="47">
         <v>33298</v>
       </c>
       <c r="J14" s="47">
-        <v>22302</v>
+        <v>32438</v>
       </c>
       <c r="K14" s="47">
-        <v>26024</v>
+        <v>57887</v>
       </c>
       <c r="L14" s="47">
-        <v>29400</v>
+        <v>60137</v>
       </c>
       <c r="M14" s="47">
-        <v>30897</v>
+        <v>62513</v>
       </c>
       <c r="N14" s="47">
-        <v>17906</v>
+        <v>50431</v>
       </c>
       <c r="O14" s="47">
-        <v>320574</v>
+        <v>588110</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25479,11 +25493,11 @@
       <c r="D16" s="71"/>
       <c r="F16" s="94">
         <f ca="1">DashBoardAtualID!D26</f>
-        <v>895.88235294117646</v>
+        <v>930.47058823529414</v>
       </c>
       <c r="G16" s="95">
         <f ca="1">DashBoardAtualID!I26</f>
-        <v>1427.9166666666667</v>
+        <v>1483.9166666666667</v>
       </c>
       <c r="I16" s="75"/>
       <c r="K16" s="77"/>
@@ -25788,11 +25802,11 @@
       <c r="D16" s="71"/>
       <c r="F16" s="94">
         <f ca="1">DashBoardFinanceiroIAnualD!D26</f>
-        <v>895.88235294117646</v>
+        <v>930.47058823529414</v>
       </c>
       <c r="G16" s="95">
         <f ca="1">DashBoardFinanceiroIAnualD!I26</f>
-        <v>1427.9166666666667</v>
+        <v>1483.9166666666667</v>
       </c>
       <c r="I16" s="75"/>
       <c r="K16" s="77"/>
@@ -26535,11 +26549,11 @@
       </c>
       <c r="C26" s="125">
         <f ca="1">SUMIFS(TbRegistroEntradas[Dias de atraso],TbRegistroEntradas[Ano Competência],B4,TbRegistroEntradas[Dias de atraso],"&gt;0")</f>
-        <v>15230</v>
+        <v>15818</v>
       </c>
       <c r="D26" s="125">
         <f ca="1">C26/B26</f>
-        <v>895.88235294117646</v>
+        <v>930.47058823529414</v>
       </c>
       <c r="E26" s="102"/>
       <c r="F26" s="123">
@@ -26552,11 +26566,11 @@
       </c>
       <c r="H26" s="125">
         <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Ano Competência],B4,TbRegistroSaídas[Dias de Atraso],"&gt;0")</f>
-        <v>17135</v>
+        <v>17807</v>
       </c>
       <c r="I26" s="125">
         <f ca="1">H26/G26</f>
-        <v>1427.9166666666667</v>
+        <v>1483.9166666666667</v>
       </c>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
@@ -26881,7 +26895,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27544,11 +27558,11 @@
       </c>
       <c r="C26" s="125">
         <f ca="1">SUMIFS(TbRegistroEntradas[Dias de atraso],TbRegistroEntradas[Ano Competência],B4,TbRegistroEntradas[Dias de atraso],"&gt;0",TbRegistroEntradas[Data da Competência],"&lt;="&amp;B28)</f>
-        <v>15230</v>
+        <v>15818</v>
       </c>
       <c r="D26" s="125">
         <f ca="1">C26/B26</f>
-        <v>895.88235294117646</v>
+        <v>930.47058823529414</v>
       </c>
       <c r="E26" s="102"/>
       <c r="F26" s="123">
@@ -27561,11 +27575,11 @@
       </c>
       <c r="H26" s="125">
         <f ca="1">SUMIFS(TbRegistroSaídas[Dias de Atraso],TbRegistroSaídas[Ano Competência],B4,TbRegistroSaídas[Dias de Atraso],"&gt;0",TbRegistroSaídas[Data da Competência],"&lt;="&amp;B5)</f>
-        <v>17135</v>
+        <v>17807</v>
       </c>
       <c r="I26" s="125">
         <f ca="1">H26/G26</f>
-        <v>1427.9166666666667</v>
+        <v>1483.9166666666667</v>
       </c>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
@@ -27895,7 +27909,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29341,7 +29355,7 @@
       </c>
       <c r="Q13" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2688</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -29990,7 +30004,7 @@
       </c>
       <c r="Q24" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2656</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30403,7 +30417,7 @@
       </c>
       <c r="Q31" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2644</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -30757,7 +30771,7 @@
       </c>
       <c r="Q37" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2600</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -31819,7 +31833,7 @@
       </c>
       <c r="Q55" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2542</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -32468,7 +32482,7 @@
       </c>
       <c r="Q66" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2511</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="67" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -32822,7 +32836,7 @@
       </c>
       <c r="Q72" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2496</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="73" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -32999,7 +33013,7 @@
       </c>
       <c r="Q75" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2499</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="76" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -33943,7 +33957,7 @@
       </c>
       <c r="Q91" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2441</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="92" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -35890,7 +35904,7 @@
       </c>
       <c r="Q124" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2355</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="125" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -35949,7 +35963,7 @@
       </c>
       <c r="Q125" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2397</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="126" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -36067,7 +36081,7 @@
       </c>
       <c r="Q127" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2391</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="128" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -37542,7 +37556,7 @@
       </c>
       <c r="Q152" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2263</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="153" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -37778,7 +37792,7 @@
       </c>
       <c r="Q156" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2298</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="157" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -38427,7 +38441,7 @@
       </c>
       <c r="Q167" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2214</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="168" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39194,7 +39208,7 @@
       </c>
       <c r="Q180" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2179</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="181" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -39312,7 +39326,7 @@
       </c>
       <c r="Q182" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2188</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="183" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -40492,7 +40506,7 @@
       </c>
       <c r="Q202" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2115</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="203" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -40964,7 +40978,7 @@
       </c>
       <c r="Q210" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2122</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="211" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -41731,7 +41745,7 @@
       </c>
       <c r="Q223" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2090</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="224" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -41849,7 +41863,7 @@
       </c>
       <c r="Q225" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2053</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="226" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -42085,7 +42099,7 @@
       </c>
       <c r="Q229" s="34">
         <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Registrado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2070</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="230" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -42405,7 +42419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6348CBD-4B08-4D91-8A25-D145BA857A1F}">
   <dimension ref="A1:V232"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -43013,7 +43027,7 @@
       </c>
       <c r="O13">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2717</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -43064,7 +43078,7 @@
       </c>
       <c r="O14">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2681</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -43319,7 +43333,7 @@
       </c>
       <c r="O19" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2686</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
@@ -44747,7 +44761,7 @@
       </c>
       <c r="O47" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2559</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -45104,7 +45118,7 @@
       </c>
       <c r="O54" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2550</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
@@ -45257,7 +45271,7 @@
       </c>
       <c r="O57" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2592</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
@@ -45359,7 +45373,7 @@
       </c>
       <c r="O59" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2589</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
@@ -45716,7 +45730,7 @@
       </c>
       <c r="O66" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2576</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
@@ -45920,7 +45934,7 @@
       </c>
       <c r="O70" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2566</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
@@ -47144,7 +47158,7 @@
       </c>
       <c r="O94" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2479</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
@@ -47297,7 +47311,7 @@
       </c>
       <c r="O97" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2450</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.3">
@@ -47348,7 +47362,7 @@
       </c>
       <c r="O98" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2473</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.3">
@@ -47552,7 +47566,7 @@
       </c>
       <c r="O102" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2423</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.3">
@@ -47756,7 +47770,7 @@
       </c>
       <c r="O106" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2448</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.3">
@@ -48113,7 +48127,7 @@
       </c>
       <c r="O113" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2413</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.3">
@@ -48266,7 +48280,7 @@
       </c>
       <c r="O116" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2396</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.3">
@@ -48521,7 +48535,7 @@
       </c>
       <c r="O121" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2403</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.3">
@@ -49337,7 +49351,7 @@
       </c>
       <c r="O137" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2348</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.3">
@@ -49388,7 +49402,7 @@
       </c>
       <c r="O138" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2343</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.3">
@@ -49643,7 +49657,7 @@
       </c>
       <c r="O143" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2284</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.3">
@@ -50357,7 +50371,7 @@
       </c>
       <c r="O157" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2284</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.3">
@@ -50867,7 +50881,7 @@
       </c>
       <c r="O167" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2221</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.3">
@@ -51581,7 +51595,7 @@
       </c>
       <c r="O181" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2192</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.3">
@@ -51734,7 +51748,7 @@
       </c>
       <c r="O184" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2198</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.3">
@@ -51989,7 +52003,7 @@
       </c>
       <c r="O189" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2180</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.3">
@@ -52244,7 +52258,7 @@
       </c>
       <c r="O194" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2129</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.3">
@@ -52754,7 +52768,7 @@
       </c>
       <c r="O204" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2096</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.3">
@@ -53009,7 +53023,7 @@
       </c>
       <c r="O209" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2112</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.3">
@@ -53774,7 +53788,7 @@
       </c>
       <c r="O224" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2056</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="225" spans="2:15" x14ac:dyDescent="0.3">
@@ -54029,7 +54043,7 @@
       </c>
       <c r="O229" s="34">
         <f ca="1">IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&lt;&gt;"",IF(TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TbRegistroSaídas[[#This Row],[Data do Caixa Registrado]]-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroSaídas[[#This Row],[Data do Caixa Previsto]],0))</f>
-        <v>2015</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.3">
